--- a/REGULAR/FLAVIER, ADORACION.xlsx
+++ b/REGULAR/FLAVIER, ADORACION.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742CC72F-10E0-4946-9EB9-C1C893D2076B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D7C66A-DC3F-47C5-845B-9DCC5615950E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,12 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="573">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1737,6 +1737,18 @@
   </si>
   <si>
     <t>SL(1-0-0)</t>
+  </si>
+  <si>
+    <t>SP(2-0-0)</t>
+  </si>
+  <si>
+    <t>3/7,14/2023</t>
+  </si>
+  <si>
+    <t>SL(3-0-0)</t>
+  </si>
+  <si>
+    <t>3/8,9,10/2023</t>
   </si>
 </sst>
 </file>
@@ -4178,7 +4190,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K648" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K649" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
@@ -4551,12 +4563,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K648"/>
+  <dimension ref="A2:K649"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1728" topLeftCell="A628" activePane="bottomLeft"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="bottomLeft" activeCell="H645" sqref="H645"/>
+      <selection pane="bottomLeft" activeCell="H647" sqref="H647"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4565,11 +4577,11 @@
     <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
@@ -4713,7 +4725,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>-1.2190000000001078</v>
+        <v>3.0999999999892225E-2</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4723,7 +4735,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>173.20799999999997</v>
+        <v>171.45799999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -19104,25 +19116,31 @@
       <c r="A645" s="40">
         <v>44986</v>
       </c>
-      <c r="B645" s="20"/>
-      <c r="C645" s="13"/>
+      <c r="B645" s="20" t="s">
+        <v>569</v>
+      </c>
+      <c r="C645" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D645" s="39"/>
       <c r="E645" s="9"/>
       <c r="F645" s="20"/>
-      <c r="G645" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G645" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H645" s="39"/>
       <c r="I645" s="9"/>
       <c r="J645" s="11"/>
-      <c r="K645" s="20"/>
+      <c r="K645" s="20" t="s">
+        <v>570</v>
+      </c>
     </row>
     <row r="646" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A646" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B646" s="20"/>
+      <c r="A646" s="40"/>
+      <c r="B646" s="20" t="s">
+        <v>571</v>
+      </c>
       <c r="C646" s="13"/>
       <c r="D646" s="39"/>
       <c r="E646" s="9"/>
@@ -19131,14 +19149,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H646" s="39"/>
+      <c r="H646" s="39">
+        <v>3</v>
+      </c>
       <c r="I646" s="9"/>
       <c r="J646" s="11"/>
-      <c r="K646" s="20"/>
+      <c r="K646" s="20" t="s">
+        <v>572</v>
+      </c>
     </row>
     <row r="647" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A647" s="40">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B647" s="20"/>
       <c r="C647" s="13"/>
@@ -19156,7 +19178,7 @@
     </row>
     <row r="648" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A648" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B648" s="20"/>
       <c r="C648" s="13"/>
@@ -19171,6 +19193,24 @@
       <c r="I648" s="9"/>
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
+    </row>
+    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A649" s="40">
+        <v>45078</v>
+      </c>
+      <c r="B649" s="20"/>
+      <c r="C649" s="13"/>
+      <c r="D649" s="39"/>
+      <c r="E649" s="9"/>
+      <c r="F649" s="20"/>
+      <c r="G649" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H649" s="39"/>
+      <c r="I649" s="9"/>
+      <c r="J649" s="11"/>
+      <c r="K649" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -19223,8 +19263,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
     <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>

--- a/REGULAR/FLAVIER, ADORACION.xlsx
+++ b/REGULAR/FLAVIER, ADORACION.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D7C66A-DC3F-47C5-845B-9DCC5615950E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0087DE23-662F-49D1-8B1E-929281CEB6EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="577">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1749,6 +1749,31 @@
   </si>
   <si>
     <t>3/8,9,10/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> *********************NOTHING FOLLOWS***********************</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">COMPULSORY RETIREMENT EFFECTIVE DATE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AUGUST 09, 2023</t>
+    </r>
+  </si>
+  <si>
+    <t>TOTAL VL = 5.364</t>
+  </si>
+  <si>
+    <t>TOTAL SL = 176.791</t>
   </si>
 </sst>
 </file>
@@ -1761,7 +1786,7 @@
     <numFmt numFmtId="166" formatCode="###\-###\-###"/>
     <numFmt numFmtId="167" formatCode="&quot;CM&quot;\-#######"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1816,6 +1841,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2005,7 +2038,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2206,6 +2239,27 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4190,7 +4244,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K649" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K658" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
@@ -4563,12 +4617,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K649"/>
+  <dimension ref="A2:K658"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1728" topLeftCell="A628" activePane="bottomLeft"/>
+      <pane ySplit="1728" topLeftCell="A638" activePane="bottomLeft"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="bottomLeft" activeCell="H647" sqref="H647"/>
+      <selection pane="bottomLeft" activeCell="D654" sqref="D654"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4725,7 +4779,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>3.0999999999892225E-2</v>
+        <v>5.3639999999999191</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4735,7 +4789,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>171.45799999999997</v>
+        <v>176.791</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -19163,13 +19217,15 @@
         <v>45017</v>
       </c>
       <c r="B647" s="20"/>
-      <c r="C647" s="13"/>
+      <c r="C647" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D647" s="39"/>
       <c r="E647" s="9"/>
       <c r="F647" s="20"/>
-      <c r="G647" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G647" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H647" s="39"/>
       <c r="I647" s="9"/>
@@ -19181,13 +19237,15 @@
         <v>45047</v>
       </c>
       <c r="B648" s="20"/>
-      <c r="C648" s="13"/>
+      <c r="C648" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D648" s="39"/>
       <c r="E648" s="9"/>
       <c r="F648" s="20"/>
-      <c r="G648" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G648" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H648" s="39"/>
       <c r="I648" s="9"/>
@@ -19199,18 +19257,173 @@
         <v>45078</v>
       </c>
       <c r="B649" s="20"/>
-      <c r="C649" s="13"/>
+      <c r="C649" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D649" s="39"/>
       <c r="E649" s="9"/>
       <c r="F649" s="20"/>
-      <c r="G649" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G649" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H649" s="39"/>
       <c r="I649" s="9"/>
       <c r="J649" s="11"/>
       <c r="K649" s="20"/>
+    </row>
+    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A650" s="40">
+        <v>45108</v>
+      </c>
+      <c r="B650" s="20"/>
+      <c r="C650" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D650" s="39"/>
+      <c r="E650" s="9"/>
+      <c r="F650" s="20"/>
+      <c r="G650" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H650" s="39"/>
+      <c r="I650" s="9"/>
+      <c r="J650" s="11"/>
+      <c r="K650" s="20"/>
+    </row>
+    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A651" s="40">
+        <v>45146</v>
+      </c>
+      <c r="B651" s="20"/>
+      <c r="C651" s="13">
+        <v>0.33299999999999996</v>
+      </c>
+      <c r="D651" s="39"/>
+      <c r="E651" s="9"/>
+      <c r="F651" s="20"/>
+      <c r="G651" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>0.33299999999999996</v>
+      </c>
+      <c r="H651" s="39"/>
+      <c r="I651" s="9"/>
+      <c r="J651" s="11"/>
+      <c r="K651" s="20"/>
+    </row>
+    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A652" s="70"/>
+      <c r="B652" s="71" t="s">
+        <v>574</v>
+      </c>
+      <c r="C652" s="72"/>
+      <c r="D652" s="71"/>
+      <c r="E652" s="73"/>
+      <c r="F652" s="11"/>
+      <c r="G652" s="13"/>
+      <c r="H652" s="11"/>
+      <c r="I652" s="9"/>
+      <c r="J652" s="11"/>
+      <c r="K652" s="20"/>
+    </row>
+    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A653" s="40"/>
+      <c r="B653" s="11"/>
+      <c r="C653" s="13"/>
+      <c r="D653" s="74" t="s">
+        <v>575</v>
+      </c>
+      <c r="E653" s="9"/>
+      <c r="F653" s="11"/>
+      <c r="G653" s="13"/>
+      <c r="H653" s="74" t="s">
+        <v>576</v>
+      </c>
+      <c r="I653" s="9"/>
+      <c r="J653" s="11"/>
+      <c r="K653" s="20"/>
+    </row>
+    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A654" s="40"/>
+      <c r="B654" s="11"/>
+      <c r="C654" s="13" t="s">
+        <v>573</v>
+      </c>
+      <c r="D654" s="11"/>
+      <c r="E654" s="9"/>
+      <c r="F654" s="11"/>
+      <c r="G654" s="72" t="s">
+        <v>573</v>
+      </c>
+      <c r="H654" s="71"/>
+      <c r="I654" s="73"/>
+      <c r="J654" s="71"/>
+      <c r="K654" s="75"/>
+    </row>
+    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A655" s="40"/>
+      <c r="B655" s="20"/>
+      <c r="C655" s="13"/>
+      <c r="D655" s="39"/>
+      <c r="E655" s="9"/>
+      <c r="F655" s="20"/>
+      <c r="G655" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H655" s="39"/>
+      <c r="I655" s="9"/>
+      <c r="J655" s="11"/>
+      <c r="K655" s="20"/>
+    </row>
+    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A656" s="40"/>
+      <c r="B656" s="20"/>
+      <c r="C656" s="13"/>
+      <c r="D656" s="39"/>
+      <c r="E656" s="9"/>
+      <c r="F656" s="20"/>
+      <c r="G656" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H656" s="39"/>
+      <c r="I656" s="9"/>
+      <c r="J656" s="11"/>
+      <c r="K656" s="20"/>
+    </row>
+    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A657" s="40"/>
+      <c r="B657" s="20"/>
+      <c r="C657" s="13"/>
+      <c r="D657" s="39"/>
+      <c r="E657" s="9"/>
+      <c r="F657" s="20"/>
+      <c r="G657" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H657" s="39"/>
+      <c r="I657" s="9"/>
+      <c r="J657" s="11"/>
+      <c r="K657" s="20"/>
+    </row>
+    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A658" s="69"/>
+      <c r="B658" s="15"/>
+      <c r="C658" s="41"/>
+      <c r="D658" s="42"/>
+      <c r="E658" s="9"/>
+      <c r="F658" s="15"/>
+      <c r="G658" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H658" s="42"/>
+      <c r="I658" s="9"/>
+      <c r="J658" s="12"/>
+      <c r="K658" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -19258,7 +19471,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/REGULAR/FLAVIER, ADORACION.xlsx
+++ b/REGULAR/FLAVIER, ADORACION.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D86962-00D8-4585-8D80-C0BEC84588DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,12 +24,12 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="576">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1776,7 +1775,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2703,7 +2702,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2746,7 +2745,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2810,7 +2809,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2870,7 +2869,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2936,7 +2935,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2999,7 +2998,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3097,7 +3096,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3156,7 +3155,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3221,7 +3220,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3264,7 +3263,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3339,7 +3338,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3525,7 +3524,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3591,7 +3590,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3649,7 +3648,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3715,7 +3714,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3771,7 +3770,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3846,7 +3845,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3889,7 +3888,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3955,7 +3954,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4011,7 +4010,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4109,7 +4108,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4172,7 +4171,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4221,7 +4220,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -4238,38 +4237,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K658" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K658" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAY"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAY"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4278,14 +4277,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4589,7 +4588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4599,7 +4598,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4607,34 +4606,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K658"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1728" topLeftCell="A309" activePane="bottomLeft"/>
-      <selection activeCell="A7" sqref="A7"/>
-      <selection pane="bottomLeft" activeCell="L321" sqref="L321"/>
+      <pane ySplit="1725" topLeftCell="A626"/>
+      <selection activeCell="J8" sqref="J8"/>
+      <selection pane="bottomLeft" activeCell="K650" sqref="K650"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -4655,7 +4654,7 @@
       <c r="J2" s="65"/>
       <c r="K2" s="66"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4673,7 +4672,7 @@
       <c r="J3" s="67"/>
       <c r="K3" s="68"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4691,7 +4690,7 @@
       <c r="J4" s="69"/>
       <c r="K4" s="70"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4699,7 +4698,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4712,7 +4711,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="63" t="s">
@@ -4729,7 +4728,7 @@
       <c r="J7" s="63"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4764,7 +4763,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4783,12 +4782,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>176.791</v>
+        <v>175.791</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="46" t="s">
         <v>125</v>
       </c>
@@ -4806,7 +4805,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>34582</v>
       </c>
@@ -4832,7 +4831,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>34608</v>
       </c>
@@ -4858,7 +4857,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <f>EDATE(A12,1)</f>
         <v>34639</v>
@@ -4885,7 +4884,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <f>EDATE(A13,1)</f>
         <v>34669</v>
@@ -4912,7 +4911,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="46" t="s">
         <v>126</v>
       </c>
@@ -4936,7 +4935,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <v>34700</v>
       </c>
@@ -4962,7 +4961,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <f>EDATE(A16,1)</f>
         <v>34731</v>
@@ -4989,7 +4988,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <f t="shared" ref="A18:A26" si="2">EDATE(A17,1)</f>
         <v>34759</v>
@@ -5016,7 +5015,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <f t="shared" si="2"/>
         <v>34790</v>
@@ -5043,7 +5042,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
       <c r="B20" s="20" t="s">
         <v>127</v>
@@ -5071,7 +5070,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23"/>
       <c r="B21" s="20" t="s">
         <v>48</v>
@@ -5099,7 +5098,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <f>EDATE(A19,1)</f>
         <v>34820</v>
@@ -5126,7 +5125,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <f>EDATE(A22,1)</f>
         <v>34851</v>
@@ -5159,7 +5158,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <f>EDATE(A23,1)</f>
         <v>34881</v>
@@ -5192,7 +5191,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <f>EDATE(A24,1)</f>
         <v>34912</v>
@@ -5219,7 +5218,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <f t="shared" si="2"/>
         <v>34943</v>
@@ -5252,7 +5251,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <f>EDATE(A26,1)</f>
         <v>34973</v>
@@ -5285,7 +5284,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <f>EDATE(A27,1)</f>
         <v>35004</v>
@@ -5318,7 +5317,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="23"/>
       <c r="B29" s="20" t="s">
         <v>169</v>
@@ -5346,7 +5345,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="23"/>
       <c r="B30" s="20" t="s">
         <v>138</v>
@@ -5372,7 +5371,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <f>EDATE(A28,1)</f>
         <v>35034</v>
@@ -5405,7 +5404,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="46" t="s">
         <v>129</v>
       </c>
@@ -5429,7 +5428,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <v>35065</v>
       </c>
@@ -5461,7 +5460,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="39">
         <f>EDATE(A33,1)</f>
         <v>35096</v>
@@ -5488,7 +5487,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="39"/>
       <c r="B35" s="20" t="s">
         <v>116</v>
@@ -5516,7 +5515,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="39">
         <f>EDATE(A34,1)</f>
         <v>35125</v>
@@ -5549,7 +5548,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="39">
         <f>EDATE(A36,1)</f>
         <v>35156</v>
@@ -5582,7 +5581,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="39">
         <f>EDATE(A37,1)</f>
         <v>35186</v>
@@ -5615,7 +5614,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="39">
         <f>EDATE(A38,1)</f>
         <v>35217</v>
@@ -5644,7 +5643,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="39"/>
       <c r="B40" s="20" t="s">
         <v>48</v>
@@ -5674,7 +5673,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="39">
         <f>EDATE(A39,1)</f>
         <v>35247</v>
@@ -5701,7 +5700,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="39">
         <f t="shared" ref="A42" si="3">EDATE(A41,1)</f>
         <v>35278</v>
@@ -5734,7 +5733,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="39">
         <f>EDATE(A42,1)</f>
         <v>35309</v>
@@ -5767,7 +5766,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="39">
         <f>EDATE(A43,1)</f>
         <v>35339</v>
@@ -5800,7 +5799,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="39">
         <f>EDATE(A44,1)</f>
         <v>35370</v>
@@ -5833,7 +5832,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="39">
         <f>EDATE(A45,1)</f>
         <v>35400</v>
@@ -5864,7 +5863,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="46" t="s">
         <v>131</v>
       </c>
@@ -5888,7 +5887,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="39">
         <v>35431</v>
       </c>
@@ -5918,7 +5917,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="39">
         <f>EDATE(A48,1)</f>
         <v>35462</v>
@@ -5951,7 +5950,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="39"/>
       <c r="B50" s="20" t="s">
         <v>108</v>
@@ -5979,7 +5978,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="39">
         <f>EDATE(A49,1)</f>
         <v>35490</v>
@@ -6006,7 +6005,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="39">
         <f>EDATE(A51,1)</f>
         <v>35521</v>
@@ -6037,7 +6036,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="39">
         <f>EDATE(A52,1)</f>
         <v>35551</v>
@@ -6064,7 +6063,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="39">
         <f t="shared" ref="A54:A59" si="4">EDATE(A53,1)</f>
         <v>35582</v>
@@ -6091,7 +6090,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="39">
         <f>EDATE(A54,1)</f>
         <v>35612</v>
@@ -6122,7 +6121,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="39"/>
       <c r="B56" s="20" t="s">
         <v>45</v>
@@ -6150,7 +6149,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="39">
         <f>EDATE(A55,1)</f>
         <v>35643</v>
@@ -6183,7 +6182,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="39">
         <f>EDATE(A57,1)</f>
         <v>35674</v>
@@ -6210,7 +6209,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="39">
         <f t="shared" si="4"/>
         <v>35704</v>
@@ -6243,7 +6242,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="39">
         <f>EDATE(A59,1)</f>
         <v>35735</v>
@@ -6276,7 +6275,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="39">
         <f>EDATE(A60,1)</f>
         <v>35765</v>
@@ -6309,7 +6308,7 @@
         <v>35685</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="39"/>
       <c r="B62" s="20" t="s">
         <v>145</v>
@@ -6335,7 +6334,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="46" t="s">
         <v>146</v>
       </c>
@@ -6359,7 +6358,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="47"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="39">
         <v>35796</v>
       </c>
@@ -6391,7 +6390,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="39"/>
       <c r="B65" s="20" t="s">
         <v>167</v>
@@ -6419,7 +6418,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="39"/>
       <c r="B66" s="20" t="s">
         <v>147</v>
@@ -6445,7 +6444,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="39">
         <f>EDATE(A64,1)</f>
         <v>35827</v>
@@ -6478,7 +6477,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="39"/>
       <c r="B68" s="20" t="s">
         <v>151</v>
@@ -6504,7 +6503,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="39">
         <f>EDATE(A67,1)</f>
         <v>35855</v>
@@ -6531,7 +6530,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="47"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="39">
         <f t="shared" ref="A70" si="5">EDATE(A69,1)</f>
         <v>35886</v>
@@ -6564,7 +6563,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="39"/>
       <c r="B71" s="20" t="s">
         <v>116</v>
@@ -6592,7 +6591,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="39"/>
       <c r="B72" s="20" t="s">
         <v>154</v>
@@ -6618,7 +6617,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="39">
         <f>EDATE(A70,1)</f>
         <v>35916</v>
@@ -6651,7 +6650,7 @@
         <v>35890</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="39"/>
       <c r="B74" s="20" t="s">
         <v>157</v>
@@ -6677,7 +6676,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="39">
         <f>EDATE(A73,1)</f>
         <v>35947</v>
@@ -6708,7 +6707,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="39"/>
       <c r="B76" s="20" t="s">
         <v>159</v>
@@ -6734,7 +6733,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="47"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="39">
         <f>EDATE(A75,1)</f>
         <v>35977</v>
@@ -6767,7 +6766,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="39">
         <f>EDATE(A77,1)</f>
         <v>36008</v>
@@ -6800,7 +6799,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="39"/>
       <c r="B79" s="20" t="s">
         <v>116</v>
@@ -6828,7 +6827,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="39"/>
       <c r="B80" s="20" t="s">
         <v>162</v>
@@ -6854,7 +6853,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="39">
         <f>EDATE(A78,1)</f>
         <v>36039</v>
@@ -6887,7 +6886,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="39"/>
       <c r="B82" s="20" t="s">
         <v>165</v>
@@ -6913,7 +6912,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="39">
         <f>EDATE(A81,1)</f>
         <v>36069</v>
@@ -6946,7 +6945,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="39"/>
       <c r="B84" s="20" t="s">
         <v>168</v>
@@ -6972,7 +6971,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="39">
         <f>EDATE(A83,1)</f>
         <v>36100</v>
@@ -7005,7 +7004,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="39"/>
       <c r="B86" s="20" t="s">
         <v>171</v>
@@ -7031,7 +7030,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="39">
         <v>36130</v>
       </c>
@@ -7063,7 +7062,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="39"/>
       <c r="B88" s="20" t="s">
         <v>186</v>
@@ -7089,7 +7088,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="39"/>
       <c r="B89" s="20" t="s">
         <v>189</v>
@@ -7115,7 +7114,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="46" t="s">
         <v>174</v>
       </c>
@@ -7139,7 +7138,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="23">
         <v>36161</v>
       </c>
@@ -7171,7 +7170,7 @@
         <v>36495</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="23"/>
       <c r="B92" s="20" t="s">
         <v>213</v>
@@ -7197,7 +7196,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="23"/>
       <c r="B93" s="20" t="s">
         <v>48</v>
@@ -7225,7 +7224,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="23"/>
       <c r="B94" s="20" t="s">
         <v>215</v>
@@ -7251,7 +7250,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="39">
         <f>EDATE(A91,1)</f>
         <v>36192</v>
@@ -7284,7 +7283,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="39"/>
       <c r="B96" s="20" t="s">
         <v>217</v>
@@ -7310,7 +7309,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="39">
         <f>EDATE(A95,1)</f>
         <v>36220</v>
@@ -7343,7 +7342,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="39"/>
       <c r="B98" s="20" t="s">
         <v>45</v>
@@ -7371,7 +7370,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="39"/>
       <c r="B99" s="20" t="s">
         <v>220</v>
@@ -7399,7 +7398,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="39"/>
       <c r="B100" s="20" t="s">
         <v>222</v>
@@ -7425,7 +7424,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="39">
         <f t="shared" ref="A101" si="8">EDATE(A97,1)</f>
         <v>36251</v>
@@ -7454,7 +7453,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="39"/>
       <c r="B102" s="20" t="s">
         <v>108</v>
@@ -7482,7 +7481,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="39"/>
       <c r="B103" s="20" t="s">
         <v>109</v>
@@ -7510,7 +7509,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="39"/>
       <c r="B104" s="20" t="s">
         <v>225</v>
@@ -7538,7 +7537,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="39">
         <v>36281</v>
       </c>
@@ -7568,7 +7567,7 @@
         <v>36255</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="39"/>
       <c r="B106" s="20" t="s">
         <v>48</v>
@@ -7596,7 +7595,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="39"/>
       <c r="B107" s="20" t="s">
         <v>175</v>
@@ -7624,7 +7623,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="47"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="39">
         <f>EDATE(A105,1)</f>
         <v>36312</v>
@@ -7655,7 +7654,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="39"/>
       <c r="B109" s="20" t="s">
         <v>116</v>
@@ -7683,7 +7682,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="39"/>
       <c r="B110" s="20" t="s">
         <v>48</v>
@@ -7711,7 +7710,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="39"/>
       <c r="B111" s="20" t="s">
         <v>177</v>
@@ -7739,7 +7738,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="39">
         <f>EDATE(A108,1)</f>
         <v>36342</v>
@@ -7770,7 +7769,7 @@
         <v>36501</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="39"/>
       <c r="B113" s="20" t="s">
         <v>182</v>
@@ -7798,7 +7797,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="39"/>
       <c r="B114" s="20" t="s">
         <v>181</v>
@@ -7826,7 +7825,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="47"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="39">
         <f>EDATE(A112,1)</f>
         <v>36373</v>
@@ -7854,7 +7853,7 @@
         <v>36227</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="39"/>
       <c r="B116" s="20" t="s">
         <v>45</v>
@@ -7882,7 +7881,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="39"/>
       <c r="B117" s="20" t="s">
         <v>48</v>
@@ -7910,7 +7909,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="39"/>
       <c r="B118" s="20" t="s">
         <v>184</v>
@@ -7938,7 +7937,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="39">
         <f>EDATE(A115,1)</f>
         <v>36404</v>
@@ -7965,7 +7964,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="39">
         <f>EDATE(A119,1)</f>
         <v>36434</v>
@@ -7996,7 +7995,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="39"/>
       <c r="B121" s="20" t="s">
         <v>229</v>
@@ -8024,7 +8023,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="39"/>
       <c r="B122" s="20" t="s">
         <v>232</v>
@@ -8052,7 +8051,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="39">
         <f>EDATE(A120,1)</f>
         <v>36465</v>
@@ -8083,7 +8082,7 @@
         <v>36505</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="39"/>
       <c r="B124" s="20" t="s">
         <v>233</v>
@@ -8111,7 +8110,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="39"/>
       <c r="B125" s="20" t="s">
         <v>235</v>
@@ -8139,7 +8138,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="39">
         <f t="shared" ref="A126" si="9">EDATE(A123,1)</f>
         <v>36495</v>
@@ -8170,7 +8169,7 @@
         <v>36323</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="39"/>
       <c r="B127" s="20" t="s">
         <v>169</v>
@@ -8198,7 +8197,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="39"/>
       <c r="B128" s="20" t="s">
         <v>116</v>
@@ -8226,7 +8225,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="39"/>
       <c r="B129" s="20" t="s">
         <v>48</v>
@@ -8256,7 +8255,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="39"/>
       <c r="B130" s="20" t="s">
         <v>48</v>
@@ -8284,7 +8283,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="39"/>
       <c r="B131" s="20" t="s">
         <v>240</v>
@@ -8310,7 +8309,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="46" t="s">
         <v>241</v>
       </c>
@@ -8334,7 +8333,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="39">
         <v>36526</v>
       </c>
@@ -8364,7 +8363,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="39"/>
       <c r="B134" s="20" t="s">
         <v>48</v>
@@ -8392,7 +8391,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="39"/>
       <c r="B135" s="20" t="s">
         <v>245</v>
@@ -8418,7 +8417,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="39"/>
       <c r="B136" s="20" t="s">
         <v>48</v>
@@ -8448,7 +8447,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="39"/>
       <c r="B137" s="20" t="s">
         <v>248</v>
@@ -8474,7 +8473,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="39">
         <f>EDATE(A133,1)</f>
         <v>36557</v>
@@ -8502,7 +8501,7 @@
         <v>36587</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="39"/>
       <c r="B139" s="20" t="s">
         <v>116</v>
@@ -8530,7 +8529,7 @@
         <v>36801</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="39"/>
       <c r="B140" s="20" t="s">
         <v>45</v>
@@ -8558,7 +8557,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="39"/>
       <c r="B141" s="20" t="s">
         <v>250</v>
@@ -8586,7 +8585,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="47"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="39">
         <f>EDATE(A138,1)</f>
         <v>36586</v>
@@ -8617,7 +8616,7 @@
         <v>36619</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="39"/>
       <c r="B143" s="20" t="s">
         <v>251</v>
@@ -8645,7 +8644,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="39">
         <f>EDATE(A142,1)</f>
         <v>36617</v>
@@ -8676,7 +8675,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="39"/>
       <c r="B145" s="20" t="s">
         <v>57</v>
@@ -8702,7 +8701,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="39"/>
       <c r="B146" s="20" t="s">
         <v>108</v>
@@ -8730,7 +8729,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="39"/>
       <c r="B147" s="20" t="s">
         <v>48</v>
@@ -8758,7 +8757,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="39"/>
       <c r="B148" s="20" t="s">
         <v>255</v>
@@ -8786,7 +8785,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="39">
         <f>EDATE(A144,1)</f>
         <v>36647</v>
@@ -8817,7 +8816,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="39"/>
       <c r="B150" s="20" t="s">
         <v>45</v>
@@ -8845,7 +8844,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="39"/>
       <c r="B151" s="20" t="s">
         <v>85</v>
@@ -8873,7 +8872,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="39">
         <f>EDATE(A149,1)</f>
         <v>36678</v>
@@ -8904,7 +8903,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="39"/>
       <c r="B153" s="20" t="s">
         <v>260</v>
@@ -8932,7 +8931,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="39">
         <f>EDATE(A152,1)</f>
         <v>36708</v>
@@ -8963,7 +8962,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="39">
         <f>EDATE(A154,1)</f>
         <v>36739</v>
@@ -8994,7 +8993,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="39"/>
       <c r="B156" s="20" t="s">
         <v>263</v>
@@ -9022,7 +9021,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="39">
         <f>EDATE(A155,1)</f>
         <v>36770</v>
@@ -9053,7 +9052,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="39">
         <f t="shared" ref="A158:A159" si="12">EDATE(A157,1)</f>
         <v>36800</v>
@@ -9084,7 +9083,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="39">
         <f t="shared" si="12"/>
         <v>36831</v>
@@ -9112,7 +9111,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="39"/>
       <c r="B160" s="20"/>
       <c r="C160" s="13">
@@ -9136,7 +9135,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="39">
         <f>EDATE(A159,1)</f>
         <v>36861</v>
@@ -9169,7 +9168,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="46" t="s">
         <v>269</v>
       </c>
@@ -9193,7 +9192,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="39">
         <v>36892</v>
       </c>
@@ -9223,7 +9222,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="39"/>
       <c r="B164" s="20" t="s">
         <v>267</v>
@@ -9251,7 +9250,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="39"/>
       <c r="B165" s="20" t="s">
         <v>48</v>
@@ -9279,7 +9278,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="39"/>
       <c r="B166" s="49"/>
       <c r="C166" s="13">
@@ -9303,7 +9302,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="39">
         <f>EDATE(A163,1)</f>
         <v>36923</v>
@@ -9334,7 +9333,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="39"/>
       <c r="B168" s="20" t="s">
         <v>57</v>
@@ -9362,7 +9361,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="39"/>
       <c r="B169" s="20" t="s">
         <v>116</v>
@@ -9390,7 +9389,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="39">
         <f>EDATE(A167,1)</f>
         <v>36951</v>
@@ -9418,7 +9417,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="39"/>
       <c r="B171" s="20" t="s">
         <v>108</v>
@@ -9446,7 +9445,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="39"/>
       <c r="B172" s="20" t="s">
         <v>57</v>
@@ -9472,7 +9471,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="39"/>
       <c r="B173" s="49"/>
       <c r="C173" s="13">
@@ -9496,7 +9495,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="39">
         <f>EDATE(A170,1)</f>
         <v>36982</v>
@@ -9527,7 +9526,7 @@
         <v>37168</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="39"/>
       <c r="B175" s="20" t="s">
         <v>116</v>
@@ -9557,7 +9556,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="39">
         <f>EDATE(A174,1)</f>
         <v>37012</v>
@@ -9590,7 +9589,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="39">
         <f t="shared" ref="A177:A180" si="13">EDATE(A176,1)</f>
         <v>37043</v>
@@ -9621,7 +9620,7 @@
         <v>36987</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="39"/>
       <c r="B178" s="49"/>
       <c r="C178" s="13">
@@ -9645,7 +9644,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="47"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="39">
         <f>EDATE(A177,1)</f>
         <v>37073</v>
@@ -9672,7 +9671,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="39">
         <f t="shared" si="13"/>
         <v>37104</v>
@@ -9703,7 +9702,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="39"/>
       <c r="B181" s="20"/>
       <c r="C181" s="13">
@@ -9727,7 +9726,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="39">
         <f>EDATE(A180,1)</f>
         <v>37135</v>
@@ -9758,7 +9757,7 @@
         <v>37081</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="39"/>
       <c r="B183" s="20" t="s">
         <v>48</v>
@@ -9786,7 +9785,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="39"/>
       <c r="B184" s="20" t="s">
         <v>48</v>
@@ -9814,7 +9813,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="39"/>
       <c r="B185" s="49"/>
       <c r="C185" s="13">
@@ -9838,7 +9837,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="39">
         <f>EDATE(A182,1)</f>
         <v>37165</v>
@@ -9869,7 +9868,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="39"/>
       <c r="B187" s="20" t="s">
         <v>284</v>
@@ -9897,7 +9896,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="39"/>
       <c r="B188" s="20" t="s">
         <v>286</v>
@@ -9925,7 +9924,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="39"/>
       <c r="B189" s="20" t="s">
         <v>288</v>
@@ -9953,7 +9952,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="39">
         <f>EDATE(A186,1)</f>
         <v>37196</v>
@@ -9984,7 +9983,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="39"/>
       <c r="B191" s="20" t="s">
         <v>149</v>
@@ -10012,7 +10011,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="39"/>
       <c r="B192" s="20" t="s">
         <v>291</v>
@@ -10040,7 +10039,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="39">
         <f>EDATE(A190,1)</f>
         <v>37226</v>
@@ -10071,7 +10070,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="46" t="s">
         <v>293</v>
       </c>
@@ -10095,7 +10094,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="39">
         <v>37257</v>
       </c>
@@ -10125,7 +10124,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="39">
         <f>EDATE(A195,1)</f>
         <v>37288</v>
@@ -10156,7 +10155,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="39">
         <f t="shared" ref="A197:A215" si="14">EDATE(A196,1)</f>
         <v>37316</v>
@@ -10187,7 +10186,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="39">
         <f t="shared" si="14"/>
         <v>37347</v>
@@ -10218,7 +10217,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="39"/>
       <c r="B199" s="20" t="s">
         <v>57</v>
@@ -10244,7 +10243,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="39"/>
       <c r="B200" s="20" t="s">
         <v>298</v>
@@ -10272,7 +10271,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="39"/>
       <c r="B201" s="20" t="s">
         <v>300</v>
@@ -10300,7 +10299,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="39">
         <f>EDATE(A198,1)</f>
         <v>37377</v>
@@ -10331,7 +10330,7 @@
         <v>37413</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="39"/>
       <c r="B203" s="20" t="s">
         <v>301</v>
@@ -10359,7 +10358,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="47"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="39">
         <f>EDATE(A202,1)</f>
         <v>37408</v>
@@ -10386,7 +10385,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="39">
         <f t="shared" si="14"/>
         <v>37438</v>
@@ -10417,7 +10416,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="39"/>
       <c r="B206" s="20"/>
       <c r="C206" s="13">
@@ -10441,7 +10440,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="39">
         <f>EDATE(A205,1)</f>
         <v>37469</v>
@@ -10472,7 +10471,7 @@
         <v>37264</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="39"/>
       <c r="B208" s="20" t="s">
         <v>45</v>
@@ -10500,7 +10499,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="39"/>
       <c r="B209" s="20"/>
       <c r="C209" s="13">
@@ -10524,7 +10523,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="39">
         <f>EDATE(A207,1)</f>
         <v>37500</v>
@@ -10555,7 +10554,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="39">
         <f t="shared" si="14"/>
         <v>37530</v>
@@ -10586,7 +10585,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="39"/>
       <c r="B212" s="20" t="s">
         <v>48</v>
@@ -10614,7 +10613,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="39"/>
       <c r="B213" s="20"/>
       <c r="C213" s="13">
@@ -10638,7 +10637,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="39">
         <f>EDATE(A211,1)</f>
         <v>37561</v>
@@ -10669,7 +10668,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="39">
         <f t="shared" si="14"/>
         <v>37591</v>
@@ -10700,7 +10699,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="39"/>
       <c r="B216" s="49"/>
       <c r="C216" s="13">
@@ -10724,7 +10723,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="46" t="s">
         <v>308</v>
       </c>
@@ -10748,7 +10747,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="39">
         <v>37622</v>
       </c>
@@ -10776,7 +10775,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="39"/>
       <c r="B219" s="20" t="s">
         <v>309</v>
@@ -10804,7 +10803,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="39">
         <f>EDATE(A218,1)</f>
         <v>37653</v>
@@ -10835,7 +10834,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="39">
         <f t="shared" ref="A221:A238" si="17">EDATE(A220,1)</f>
         <v>37681</v>
@@ -10864,7 +10863,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="39"/>
       <c r="B222" s="20" t="s">
         <v>312</v>
@@ -10892,7 +10891,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="39">
         <f>EDATE(A221,1)</f>
         <v>37712</v>
@@ -10923,7 +10922,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="39">
         <f t="shared" si="17"/>
         <v>37742</v>
@@ -10954,7 +10953,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="39">
         <f t="shared" si="17"/>
         <v>37773</v>
@@ -10982,7 +10981,7 @@
         <v>37808</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="39"/>
       <c r="B226" s="20" t="s">
         <v>116</v>
@@ -11010,7 +11009,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="39"/>
       <c r="B227" s="49"/>
       <c r="C227" s="13">
@@ -11034,7 +11033,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="39">
         <f>EDATE(A225,1)</f>
         <v>37803</v>
@@ -11065,7 +11064,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="39"/>
       <c r="B229" s="49"/>
       <c r="C229" s="13">
@@ -11089,7 +11088,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="39">
         <f>EDATE(A228,1)</f>
         <v>37834</v>
@@ -11116,7 +11115,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="39">
         <f t="shared" si="17"/>
         <v>37865</v>
@@ -11147,7 +11146,7 @@
         <v>37689</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="39"/>
       <c r="B232" s="20" t="s">
         <v>116</v>
@@ -11175,7 +11174,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="39"/>
       <c r="B233" s="20" t="s">
         <v>321</v>
@@ -11203,7 +11202,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="47"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="39">
         <f>EDATE(A231,1)</f>
         <v>37895</v>
@@ -11234,7 +11233,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="39"/>
       <c r="B235" s="20" t="s">
         <v>45</v>
@@ -11262,7 +11261,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="39"/>
       <c r="B236" s="20" t="s">
         <v>319</v>
@@ -11290,7 +11289,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="39">
         <f>EDATE(A234,1)</f>
         <v>37926</v>
@@ -11321,7 +11320,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="39">
         <f t="shared" si="17"/>
         <v>37956</v>
@@ -11352,7 +11351,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="39"/>
       <c r="B239" s="20" t="s">
         <v>324</v>
@@ -11378,7 +11377,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="46" t="s">
         <v>325</v>
       </c>
@@ -11402,7 +11401,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="39">
         <v>37987</v>
       </c>
@@ -11432,7 +11431,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="39"/>
       <c r="B242" s="20" t="s">
         <v>314</v>
@@ -11460,7 +11459,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="39">
         <f>EDATE(A241,1)</f>
         <v>38018</v>
@@ -11488,7 +11487,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="39"/>
       <c r="B244" s="20" t="s">
         <v>116</v>
@@ -11516,7 +11515,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="39"/>
       <c r="B245" s="20" t="s">
         <v>329</v>
@@ -11544,7 +11543,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="39">
         <f>EDATE(A243,1)</f>
         <v>38047</v>
@@ -11575,7 +11574,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="39">
         <f t="shared" ref="A247:A255" si="18">EDATE(A246,1)</f>
         <v>38078</v>
@@ -11606,7 +11605,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="39"/>
       <c r="B248" s="20" t="s">
         <v>332</v>
@@ -11634,7 +11633,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="39">
         <f>EDATE(A247,1)</f>
         <v>38108</v>
@@ -11665,7 +11664,7 @@
         <v>38051</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="39"/>
       <c r="B250" s="20" t="s">
         <v>57</v>
@@ -11691,7 +11690,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="39"/>
       <c r="B251" s="20" t="s">
         <v>286</v>
@@ -11719,7 +11718,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="39"/>
       <c r="B252" s="20" t="s">
         <v>45</v>
@@ -11747,7 +11746,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="39"/>
       <c r="B253" s="20" t="s">
         <v>333</v>
@@ -11775,7 +11774,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="39">
         <f>EDATE(A249,1)</f>
         <v>38139</v>
@@ -11806,7 +11805,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="39">
         <f t="shared" si="18"/>
         <v>38169</v>
@@ -11837,7 +11836,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="39"/>
       <c r="B256" s="20" t="s">
         <v>45</v>
@@ -11865,7 +11864,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="39"/>
       <c r="B257" s="20" t="s">
         <v>337</v>
@@ -11893,7 +11892,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="39">
         <f>EDATE(A255,1)</f>
         <v>38200</v>
@@ -11921,7 +11920,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="39"/>
       <c r="B259" s="20" t="s">
         <v>149</v>
@@ -11949,7 +11948,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="39"/>
       <c r="B260" s="20" t="s">
         <v>339</v>
@@ -11977,7 +11976,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="39">
         <f>EDATE(A258,1)</f>
         <v>38231</v>
@@ -12008,7 +12007,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="39"/>
       <c r="B262" s="20" t="s">
         <v>322</v>
@@ -12036,7 +12035,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="39">
         <f>EDATE(A261,1)</f>
         <v>38261</v>
@@ -12067,7 +12066,7 @@
         <v>38301</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="39"/>
       <c r="B264" s="20" t="s">
         <v>48</v>
@@ -12095,7 +12094,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="39"/>
       <c r="B265" s="20" t="s">
         <v>344</v>
@@ -12123,7 +12122,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="39">
         <f>EDATE(A263,1)</f>
         <v>38292</v>
@@ -12154,7 +12153,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="39"/>
       <c r="B267" s="20" t="s">
         <v>116</v>
@@ -12182,7 +12181,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="39"/>
       <c r="B268" s="20" t="s">
         <v>45</v>
@@ -12210,7 +12209,7 @@
         <v>38323</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="39"/>
       <c r="B269" s="20" t="s">
         <v>347</v>
@@ -12238,7 +12237,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="47"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="39">
         <f>EDATE(A266,1)</f>
         <v>38322</v>
@@ -12269,7 +12268,7 @@
         <v>38272</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="39"/>
       <c r="B271" s="20" t="s">
         <v>51</v>
@@ -12297,7 +12296,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="39"/>
       <c r="B272" s="20" t="s">
         <v>356</v>
@@ -12325,7 +12324,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="46" t="s">
         <v>358</v>
       </c>
@@ -12349,7 +12348,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="39">
         <v>38353</v>
       </c>
@@ -12379,7 +12378,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="39"/>
       <c r="B275" s="20" t="s">
         <v>48</v>
@@ -12407,7 +12406,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="39"/>
       <c r="B276" s="20" t="s">
         <v>347</v>
@@ -12435,7 +12434,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="39">
         <f>EDATE(A274,1)</f>
         <v>38384</v>
@@ -12466,7 +12465,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="39">
         <f t="shared" ref="A278:A297" si="21">EDATE(A277,1)</f>
         <v>38412</v>
@@ -12497,7 +12496,7 @@
         <v>38567</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="39"/>
       <c r="B279" s="20" t="s">
         <v>57</v>
@@ -12523,7 +12522,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="39"/>
       <c r="B280" s="20" t="s">
         <v>48</v>
@@ -12551,7 +12550,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="39"/>
       <c r="B281" s="20" t="s">
         <v>364</v>
@@ -12579,7 +12578,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="47"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="39">
         <f>EDATE(A278,1)</f>
         <v>38443</v>
@@ -12610,7 +12609,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="39"/>
       <c r="B283" s="20" t="s">
         <v>366</v>
@@ -12638,7 +12637,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="39">
         <f>EDATE(A282,1)</f>
         <v>38473</v>
@@ -12669,7 +12668,7 @@
         <v>38661</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="39"/>
       <c r="B285" s="20" t="s">
         <v>48</v>
@@ -12697,7 +12696,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="39"/>
       <c r="B286" s="20" t="s">
         <v>368</v>
@@ -12725,7 +12724,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="39">
         <f>EDATE(A284,1)</f>
         <v>38504</v>
@@ -12756,7 +12755,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="39">
         <f t="shared" si="21"/>
         <v>38534</v>
@@ -12785,7 +12784,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="39"/>
       <c r="B289" s="20" t="s">
         <v>48</v>
@@ -12813,7 +12812,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="39"/>
       <c r="B290" s="20" t="s">
         <v>369</v>
@@ -12841,7 +12840,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="39">
         <f>EDATE(A288,1)</f>
         <v>38565</v>
@@ -12872,7 +12871,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="39">
         <f t="shared" si="21"/>
         <v>38596</v>
@@ -12903,7 +12902,7 @@
         <v>38361</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="39"/>
       <c r="B293" s="20" t="s">
         <v>45</v>
@@ -12931,7 +12930,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="39"/>
       <c r="B294" s="20" t="s">
         <v>373</v>
@@ -12959,7 +12958,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="39">
         <f>EDATE(A292,1)</f>
         <v>38626</v>
@@ -12990,7 +12989,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="39">
         <f t="shared" si="21"/>
         <v>38657</v>
@@ -13021,7 +13020,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="39">
         <f t="shared" si="21"/>
         <v>38687</v>
@@ -13052,7 +13051,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="39"/>
       <c r="B298" s="20" t="s">
         <v>48</v>
@@ -13082,7 +13081,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="39"/>
       <c r="B299" s="20" t="s">
         <v>51</v>
@@ -13108,7 +13107,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="46" t="s">
         <v>380</v>
       </c>
@@ -13132,7 +13131,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="39">
         <v>38718</v>
       </c>
@@ -13162,7 +13161,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="39"/>
       <c r="B302" s="20" t="s">
         <v>381</v>
@@ -13190,7 +13189,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="39">
         <f>EDATE(A301,1)</f>
         <v>38749</v>
@@ -13221,7 +13220,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="39"/>
       <c r="B304" s="20" t="s">
         <v>48</v>
@@ -13249,7 +13248,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="39"/>
       <c r="B305" s="20" t="s">
         <v>383</v>
@@ -13277,7 +13276,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="39">
         <f>EDATE(A303,1)</f>
         <v>38777</v>
@@ -13308,7 +13307,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="39">
         <f t="shared" ref="A307:A318" si="22">EDATE(A306,1)</f>
         <v>38808</v>
@@ -13339,7 +13338,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="39"/>
       <c r="B308" s="20" t="s">
         <v>123</v>
@@ -13367,7 +13366,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="39">
         <f>EDATE(A307,1)</f>
         <v>38838</v>
@@ -13398,7 +13397,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="39">
         <f t="shared" si="22"/>
         <v>38869</v>
@@ -13429,7 +13428,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="39">
         <f>EDATE(A310,1)</f>
         <v>38899</v>
@@ -13460,7 +13459,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="39">
         <f t="shared" si="22"/>
         <v>38930</v>
@@ -13491,7 +13490,7 @@
         <v>38937</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="39"/>
       <c r="B313" s="20" t="s">
         <v>51</v>
@@ -13519,7 +13518,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="39"/>
       <c r="B314" s="20" t="s">
         <v>394</v>
@@ -13547,7 +13546,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="39"/>
       <c r="B315" s="20" t="s">
         <v>391</v>
@@ -13575,7 +13574,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="39">
         <f>EDATE(A312,1)</f>
         <v>38961</v>
@@ -13606,7 +13605,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="39">
         <f t="shared" si="22"/>
         <v>38991</v>
@@ -13637,7 +13636,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="39">
         <f t="shared" si="22"/>
         <v>39022</v>
@@ -13668,7 +13667,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="39"/>
       <c r="B319" s="20" t="s">
         <v>398</v>
@@ -13696,7 +13695,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="39">
         <f>EDATE(A318,1)</f>
         <v>39052</v>
@@ -13727,7 +13726,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="39"/>
       <c r="B321" s="20" t="s">
         <v>399</v>
@@ -13753,7 +13752,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="46" t="s">
         <v>379</v>
       </c>
@@ -13777,7 +13776,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="39">
         <v>39083</v>
       </c>
@@ -13807,7 +13806,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="39"/>
       <c r="B324" s="20" t="s">
         <v>401</v>
@@ -13835,7 +13834,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="39">
         <f>EDATE(A323,1)</f>
         <v>39114</v>
@@ -13866,7 +13865,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="39">
         <f t="shared" ref="A326:A335" si="23">EDATE(A325,1)</f>
         <v>39142</v>
@@ -13897,7 +13896,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="39"/>
       <c r="B327" s="20" t="s">
         <v>403</v>
@@ -13925,7 +13924,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="39">
         <f>EDATE(A326,1)</f>
         <v>39173</v>
@@ -13956,7 +13955,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="39">
         <f t="shared" si="23"/>
         <v>39203</v>
@@ -13987,7 +13986,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="39">
         <f t="shared" si="23"/>
         <v>39234</v>
@@ -14018,7 +14017,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="39">
         <f t="shared" si="23"/>
         <v>39264</v>
@@ -14049,7 +14048,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="39">
         <f t="shared" si="23"/>
         <v>39295</v>
@@ -14080,7 +14079,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="39"/>
       <c r="B333" s="20" t="s">
         <v>410</v>
@@ -14108,7 +14107,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="39">
         <f>EDATE(A332,1)</f>
         <v>39326</v>
@@ -14139,7 +14138,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="39">
         <f t="shared" si="23"/>
         <v>39356</v>
@@ -14170,7 +14169,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="39">
         <f>EDATE(A335,1)</f>
         <v>39387</v>
@@ -14201,7 +14200,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="39"/>
       <c r="B337" s="20" t="s">
         <v>412</v>
@@ -14229,7 +14228,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="39">
         <f>EDATE(A336,1)</f>
         <v>39417</v>
@@ -14260,7 +14259,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="39"/>
       <c r="B339" s="20" t="s">
         <v>312</v>
@@ -14288,7 +14287,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="46" t="s">
         <v>416</v>
       </c>
@@ -14312,7 +14311,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="39">
         <v>39448</v>
       </c>
@@ -14342,7 +14341,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="39"/>
       <c r="B342" s="20" t="s">
         <v>415</v>
@@ -14370,7 +14369,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="39">
         <f>EDATE(A341,1)</f>
         <v>39479</v>
@@ -14401,7 +14400,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="39">
         <f t="shared" ref="A344:A361" si="26">EDATE(A343,1)</f>
         <v>39508</v>
@@ -14430,7 +14429,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="39"/>
       <c r="B345" s="20" t="s">
         <v>420</v>
@@ -14458,7 +14457,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="39">
         <f>EDATE(A344,1)</f>
         <v>39539</v>
@@ -14489,7 +14488,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="39"/>
       <c r="B347" s="20" t="s">
         <v>421</v>
@@ -14517,7 +14516,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="39">
         <f>EDATE(A346,1)</f>
         <v>39569</v>
@@ -14548,7 +14547,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="39">
         <f t="shared" si="26"/>
         <v>39600</v>
@@ -14579,7 +14578,7 @@
         <v>39484</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="39"/>
       <c r="B350" s="20" t="s">
         <v>424</v>
@@ -14607,7 +14606,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="39">
         <f>EDATE(A349,1)</f>
         <v>39630</v>
@@ -14638,7 +14637,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="39"/>
       <c r="B352" s="20" t="s">
         <v>428</v>
@@ -14666,7 +14665,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="39"/>
       <c r="B353" s="20" t="s">
         <v>430</v>
@@ -14694,7 +14693,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="39"/>
       <c r="B354" s="20" t="s">
         <v>425</v>
@@ -14722,7 +14721,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="39">
         <f>EDATE(A351,1)</f>
         <v>39661</v>
@@ -14753,7 +14752,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="39">
         <f t="shared" si="26"/>
         <v>39692</v>
@@ -14784,7 +14783,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="39"/>
       <c r="B357" s="20" t="s">
         <v>433</v>
@@ -14812,7 +14811,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="39">
         <f>EDATE(A356,1)</f>
         <v>39722</v>
@@ -14843,7 +14842,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="39"/>
       <c r="B359" s="20" t="s">
         <v>435</v>
@@ -14871,7 +14870,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="39">
         <f>EDATE(A358,1)</f>
         <v>39753</v>
@@ -14902,7 +14901,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="39">
         <f t="shared" si="26"/>
         <v>39783</v>
@@ -14933,7 +14932,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="46" t="s">
         <v>439</v>
       </c>
@@ -14957,7 +14956,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="39">
         <v>39814</v>
       </c>
@@ -14985,7 +14984,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="39"/>
       <c r="B364" s="20" t="s">
         <v>441</v>
@@ -15013,7 +15012,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="39">
         <f>EDATE(A363,1)</f>
         <v>39845</v>
@@ -15044,7 +15043,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="39">
         <f t="shared" ref="A366:A381" si="27">EDATE(A365,1)</f>
         <v>39873</v>
@@ -15075,7 +15074,7 @@
         <v>39875</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="39"/>
       <c r="B367" s="20" t="s">
         <v>48</v>
@@ -15103,7 +15102,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="39"/>
       <c r="B368" s="20" t="s">
         <v>443</v>
@@ -15131,7 +15130,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="39">
         <f>EDATE(A366,1)</f>
         <v>39904</v>
@@ -15162,7 +15161,7 @@
         <v>39876</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="39"/>
       <c r="B370" s="20" t="s">
         <v>445</v>
@@ -15190,7 +15189,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="39">
         <f>EDATE(A369,1)</f>
         <v>39934</v>
@@ -15221,7 +15220,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="39">
         <f t="shared" si="27"/>
         <v>39965</v>
@@ -15252,7 +15251,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="39"/>
       <c r="B373" s="20" t="s">
         <v>447</v>
@@ -15280,7 +15279,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="39">
         <f>EDATE(A372,1)</f>
         <v>39995</v>
@@ -15311,7 +15310,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="39"/>
       <c r="B375" s="20" t="s">
         <v>51</v>
@@ -15339,7 +15338,7 @@
         <v>39879</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="39"/>
       <c r="B376" s="20" t="s">
         <v>450</v>
@@ -15367,7 +15366,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="39">
         <f>EDATE(A374,1)</f>
         <v>40026</v>
@@ -15398,7 +15397,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="39"/>
       <c r="B378" s="20" t="s">
         <v>452</v>
@@ -15426,7 +15425,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="39">
         <f>EDATE(A377,1)</f>
         <v>40057</v>
@@ -15457,7 +15456,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="39">
         <f t="shared" si="27"/>
         <v>40087</v>
@@ -15488,7 +15487,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="39">
         <f t="shared" si="27"/>
         <v>40118</v>
@@ -15519,7 +15518,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="39"/>
       <c r="B382" s="20" t="s">
         <v>456</v>
@@ -15547,7 +15546,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="39">
         <f>EDATE(A381,1)</f>
         <v>40148</v>
@@ -15578,7 +15577,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="46" t="s">
         <v>458</v>
       </c>
@@ -15602,7 +15601,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="39">
         <v>40179</v>
       </c>
@@ -15632,7 +15631,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="39"/>
       <c r="B386" s="20" t="s">
         <v>57</v>
@@ -15658,7 +15657,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="39"/>
       <c r="B387" s="20" t="s">
         <v>461</v>
@@ -15686,7 +15685,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="39">
         <f>EDATE(A385,1)</f>
         <v>40210</v>
@@ -15717,7 +15716,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="39"/>
       <c r="B389" s="20" t="s">
         <v>463</v>
@@ -15745,7 +15744,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="39">
         <f>EDATE(A388,1)</f>
         <v>40238</v>
@@ -15776,7 +15775,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="39"/>
       <c r="B391" s="20" t="s">
         <v>464</v>
@@ -15804,7 +15803,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="39">
         <f>EDATE(A390,1)</f>
         <v>40269</v>
@@ -15835,7 +15834,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="39"/>
       <c r="B393" s="20" t="s">
         <v>57</v>
@@ -15863,7 +15862,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="39"/>
       <c r="B394" s="20" t="s">
         <v>48</v>
@@ -15887,7 +15886,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="39"/>
       <c r="B395" s="20" t="s">
         <v>437</v>
@@ -15915,7 +15914,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="39">
         <f>EDATE(A392,1)</f>
         <v>40299</v>
@@ -15946,7 +15945,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="39">
         <f t="shared" ref="A397:A408" si="28">EDATE(A396,1)</f>
         <v>40330</v>
@@ -15977,7 +15976,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="39">
         <f t="shared" si="28"/>
         <v>40360</v>
@@ -16008,7 +16007,7 @@
         <v>40185</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="39"/>
       <c r="B399" s="20" t="s">
         <v>57</v>
@@ -16034,7 +16033,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="39"/>
       <c r="B400" s="20" t="s">
         <v>162</v>
@@ -16062,7 +16061,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="39">
         <f>EDATE(A398,1)</f>
         <v>40391</v>
@@ -16093,7 +16092,7 @@
         <v>40459</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="39"/>
       <c r="B402" s="20" t="s">
         <v>470</v>
@@ -16121,7 +16120,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="39">
         <f>EDATE(A401,1)</f>
         <v>40422</v>
@@ -16152,7 +16151,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="39">
         <f t="shared" si="28"/>
         <v>40452</v>
@@ -16183,7 +16182,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="39"/>
       <c r="B405" s="20" t="s">
         <v>123</v>
@@ -16209,7 +16208,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="39"/>
       <c r="B406" s="20" t="s">
         <v>473</v>
@@ -16237,7 +16236,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="39">
         <f>EDATE(A404,1)</f>
         <v>40483</v>
@@ -16268,7 +16267,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="39">
         <f t="shared" si="28"/>
         <v>40513</v>
@@ -16299,7 +16298,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="46" t="s">
         <v>477</v>
       </c>
@@ -16323,7 +16322,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="39">
         <v>40544</v>
       </c>
@@ -16353,7 +16352,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="39">
         <f>EDATE(A410,1)</f>
         <v>40575</v>
@@ -16384,7 +16383,7 @@
         <v>40849</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="39"/>
       <c r="B412" s="20" t="s">
         <v>45</v>
@@ -16412,7 +16411,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="39"/>
       <c r="B413" s="20" t="s">
         <v>480</v>
@@ -16440,7 +16439,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="47"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="39">
         <f>EDATE(A411,1)</f>
         <v>40603</v>
@@ -16471,7 +16470,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="39"/>
       <c r="B415" s="20" t="s">
         <v>42</v>
@@ -16497,7 +16496,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="39"/>
       <c r="B416" s="20" t="s">
         <v>483</v>
@@ -16525,7 +16524,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="39">
         <f>EDATE(A414,1)</f>
         <v>40634</v>
@@ -16554,7 +16553,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="39"/>
       <c r="B418" s="20" t="s">
         <v>48</v>
@@ -16582,7 +16581,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="39"/>
       <c r="B419" s="20" t="s">
         <v>485</v>
@@ -16610,7 +16609,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="39">
         <f>EDATE(A417,1)</f>
         <v>40664</v>
@@ -16641,7 +16640,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="39"/>
       <c r="B421" s="20" t="s">
         <v>412</v>
@@ -16669,7 +16668,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="39">
         <f>EDATE(A420,1)</f>
         <v>40695</v>
@@ -16700,7 +16699,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="39"/>
       <c r="B423" s="20" t="s">
         <v>489</v>
@@ -16728,7 +16727,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="39">
         <f>EDATE(A422,1)</f>
         <v>40725</v>
@@ -16759,7 +16758,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="39">
         <f t="shared" ref="A425:A433" si="31">EDATE(A424,1)</f>
         <v>40756</v>
@@ -16788,7 +16787,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="39"/>
       <c r="B426" s="20" t="s">
         <v>130</v>
@@ -16816,7 +16815,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="39"/>
       <c r="B427" s="20" t="s">
         <v>493</v>
@@ -16842,7 +16841,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="39">
         <f>EDATE(A425,1)</f>
         <v>40787</v>
@@ -16873,7 +16872,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="39"/>
       <c r="B429" s="20" t="s">
         <v>494</v>
@@ -16901,7 +16900,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="39">
         <f>EDATE(A428,1)</f>
         <v>40817</v>
@@ -16932,7 +16931,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="39"/>
       <c r="B431" s="20" t="s">
         <v>496</v>
@@ -16960,7 +16959,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="39">
         <f>EDATE(A430,1)</f>
         <v>40848</v>
@@ -16991,7 +16990,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="39">
         <f t="shared" si="31"/>
         <v>40878</v>
@@ -17022,7 +17021,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="39"/>
       <c r="B434" s="20" t="s">
         <v>48</v>
@@ -17050,7 +17049,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="39"/>
       <c r="B435" s="20" t="s">
         <v>501</v>
@@ -17078,7 +17077,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="46" t="s">
         <v>502</v>
       </c>
@@ -17102,7 +17101,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="39">
         <v>40909</v>
       </c>
@@ -17132,7 +17131,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="39">
         <f>EDATE(A437,1)</f>
         <v>40940</v>
@@ -17163,7 +17162,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="39">
         <f t="shared" ref="A439:A455" si="32">EDATE(A438,1)</f>
         <v>40969</v>
@@ -17192,7 +17191,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="39"/>
       <c r="B440" s="20" t="s">
         <v>57</v>
@@ -17218,7 +17217,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="39"/>
       <c r="B441" s="20" t="s">
         <v>508</v>
@@ -17246,7 +17245,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="39">
         <f>EDATE(A439,1)</f>
         <v>41000</v>
@@ -17277,7 +17276,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="39">
         <f t="shared" si="32"/>
         <v>41030</v>
@@ -17306,7 +17305,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="39"/>
       <c r="B444" s="20" t="s">
         <v>45</v>
@@ -17334,7 +17333,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="39"/>
       <c r="B445" s="20" t="s">
         <v>512</v>
@@ -17362,7 +17361,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="39">
         <f>EDATE(A443,1)</f>
         <v>41061</v>
@@ -17393,7 +17392,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="39">
         <f t="shared" si="32"/>
         <v>41091</v>
@@ -17424,7 +17423,7 @@
         <v>41129</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="39"/>
       <c r="B448" s="20" t="s">
         <v>48</v>
@@ -17452,7 +17451,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="39"/>
       <c r="B449" s="20" t="s">
         <v>515</v>
@@ -17480,7 +17479,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="39">
         <f>EDATE(A447,1)</f>
         <v>41122</v>
@@ -17511,7 +17510,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="39"/>
       <c r="B451" s="20" t="s">
         <v>518</v>
@@ -17539,7 +17538,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="39">
         <f>EDATE(A450,1)</f>
         <v>41153</v>
@@ -17570,7 +17569,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="39">
         <f t="shared" si="32"/>
         <v>41183</v>
@@ -17601,7 +17600,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="39">
         <f t="shared" si="32"/>
         <v>41214</v>
@@ -17632,7 +17631,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="39">
         <f t="shared" si="32"/>
         <v>41244</v>
@@ -17663,7 +17662,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="46" t="s">
         <v>523</v>
       </c>
@@ -17687,7 +17686,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="39">
         <v>41275</v>
       </c>
@@ -17715,7 +17714,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="39"/>
       <c r="B458" s="20" t="s">
         <v>57</v>
@@ -17741,7 +17740,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="39"/>
       <c r="B459" s="20" t="s">
         <v>526</v>
@@ -17769,7 +17768,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="39">
         <f>EDATE(A457,1)</f>
         <v>41306</v>
@@ -17800,7 +17799,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="39">
         <f t="shared" ref="A461:A475" si="33">EDATE(A460,1)</f>
         <v>41334</v>
@@ -17827,7 +17826,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="39">
         <f t="shared" si="33"/>
         <v>41365</v>
@@ -17858,7 +17857,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="39">
         <f t="shared" si="33"/>
         <v>41395</v>
@@ -17889,7 +17888,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="39"/>
       <c r="B464" s="20" t="s">
         <v>529</v>
@@ -17917,7 +17916,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="39">
         <f>EDATE(A463,1)</f>
         <v>41426</v>
@@ -17948,7 +17947,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="39">
         <f t="shared" si="33"/>
         <v>41456</v>
@@ -17979,7 +17978,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="39"/>
       <c r="B467" s="20" t="s">
         <v>123</v>
@@ -18005,7 +18004,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="54"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="39"/>
       <c r="B468" s="20" t="s">
         <v>57</v>
@@ -18031,7 +18030,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="39">
         <f>EDATE(A466,1)</f>
         <v>41487</v>
@@ -18062,7 +18061,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="39">
         <f t="shared" si="33"/>
         <v>41518</v>
@@ -18093,7 +18092,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="39"/>
       <c r="B471" s="20" t="s">
         <v>48</v>
@@ -18121,7 +18120,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="39"/>
       <c r="B472" s="20" t="s">
         <v>536</v>
@@ -18149,7 +18148,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="39">
         <f>EDATE(A470,1)</f>
         <v>41548</v>
@@ -18180,7 +18179,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="39">
         <f t="shared" si="33"/>
         <v>41579</v>
@@ -18211,7 +18210,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="39">
         <f t="shared" si="33"/>
         <v>41609</v>
@@ -18242,7 +18241,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="46" t="s">
         <v>41</v>
       </c>
@@ -18266,7 +18265,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="23">
         <v>41640</v>
       </c>
@@ -18294,7 +18293,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="23"/>
       <c r="B478" s="20" t="s">
         <v>539</v>
@@ -18322,7 +18321,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="23">
         <v>41671</v>
       </c>
@@ -18352,7 +18351,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="23">
         <v>41699</v>
       </c>
@@ -18382,7 +18381,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="39">
         <v>41730</v>
       </c>
@@ -18412,7 +18411,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="39">
         <f>EDATE(A481,1)</f>
         <v>41760</v>
@@ -18443,7 +18442,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="39">
         <f t="shared" ref="A483:A492" si="36">EDATE(A482,1)</f>
         <v>41791</v>
@@ -18474,7 +18473,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="39"/>
       <c r="B484" s="20" t="s">
         <v>45</v>
@@ -18502,7 +18501,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="39"/>
       <c r="B485" s="20" t="s">
         <v>46</v>
@@ -18530,7 +18529,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="39">
         <f>EDATE(A483,1)</f>
         <v>41821</v>
@@ -18561,7 +18560,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="39">
         <f t="shared" si="36"/>
         <v>41852</v>
@@ -18594,7 +18593,7 @@
         <v>41859</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="39"/>
       <c r="B488" s="20" t="s">
         <v>51</v>
@@ -18622,7 +18621,7 @@
         <v>41951</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="39"/>
       <c r="B489" s="20" t="s">
         <v>53</v>
@@ -18650,7 +18649,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="47"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="39">
         <f>EDATE(A487,1)</f>
         <v>41883</v>
@@ -18681,7 +18680,7 @@
       <c r="J490" s="12"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="39">
         <f>EDATE(A490,1)</f>
         <v>41913</v>
@@ -18712,7 +18711,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="39">
         <f t="shared" si="36"/>
         <v>41944</v>
@@ -18743,7 +18742,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="39">
         <f>EDATE(A492,1)</f>
         <v>41974</v>
@@ -18774,7 +18773,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="46" t="s">
         <v>40</v>
       </c>
@@ -18798,7 +18797,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="39">
         <v>42005</v>
       </c>
@@ -18826,7 +18825,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="39"/>
       <c r="B496" s="20" t="s">
         <v>58</v>
@@ -18854,7 +18853,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="39">
         <f>EDATE(A495,1)</f>
         <v>42036</v>
@@ -18885,7 +18884,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="39">
         <f>EDATE(A497,1)</f>
         <v>42064</v>
@@ -18916,7 +18915,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="39">
         <f>EDATE(A498,1)</f>
         <v>42095</v>
@@ -18947,7 +18946,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="39">
         <f>EDATE(A499,1)</f>
         <v>42125</v>
@@ -18978,7 +18977,7 @@
         <v>42160</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="39"/>
       <c r="B501" s="20" t="s">
         <v>64</v>
@@ -19006,7 +19005,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="47"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="39">
         <f>EDATE(A500,1)</f>
         <v>42156</v>
@@ -19037,7 +19036,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="39"/>
       <c r="B503" s="20" t="s">
         <v>62</v>
@@ -19065,7 +19064,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="39">
         <f>EDATE(A502,1)</f>
         <v>42186</v>
@@ -19096,7 +19095,7 @@
         <v>42102</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="39"/>
       <c r="B505" s="20" t="s">
         <v>66</v>
@@ -19124,7 +19123,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="47"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="39">
         <f>EDATE(A504,1)</f>
         <v>42217</v>
@@ -19155,7 +19154,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="39">
         <f>EDATE(A506,1)</f>
         <v>42248</v>
@@ -19186,7 +19185,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="39">
         <f>EDATE(A507,1)</f>
         <v>42278</v>
@@ -19217,7 +19216,7 @@
         <v>42104</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="39"/>
       <c r="B509" s="20" t="s">
         <v>48</v>
@@ -19245,7 +19244,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="39"/>
       <c r="B510" s="20" t="s">
         <v>69</v>
@@ -19270,7 +19269,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="47"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="39">
         <f>EDATE(A508,1)</f>
         <v>42309</v>
@@ -19299,7 +19298,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="39">
         <f>EDATE(A511,1)</f>
         <v>42339</v>
@@ -19330,7 +19329,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="46" t="s">
         <v>72</v>
       </c>
@@ -19354,7 +19353,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="39">
         <v>42370</v>
       </c>
@@ -19384,7 +19383,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="39"/>
       <c r="B515" s="20" t="s">
         <v>48</v>
@@ -19412,7 +19411,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="39">
         <f>EDATE(A514,1)</f>
         <v>42401</v>
@@ -19443,7 +19442,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="39">
         <f>EDATE(A516,1)</f>
         <v>42430</v>
@@ -19474,7 +19473,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="39">
         <f>EDATE(A517,1)</f>
         <v>42461</v>
@@ -19505,7 +19504,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="39"/>
       <c r="B519" s="20" t="s">
         <v>169</v>
@@ -19533,7 +19532,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="39">
         <f>EDATE(A518,1)</f>
         <v>42491</v>
@@ -19564,7 +19563,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="39"/>
       <c r="B521" s="48" t="s">
         <v>45</v>
@@ -19592,7 +19591,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="39">
         <f>EDATE(A520,1)</f>
         <v>42522</v>
@@ -19623,7 +19622,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="39">
         <f>EDATE(A522,1)</f>
         <v>42552</v>
@@ -19654,7 +19653,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="39">
         <f>EDATE(A523,1)</f>
         <v>42583</v>
@@ -19685,7 +19684,7 @@
         <v>42651</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="39"/>
       <c r="B525" s="20" t="s">
         <v>87</v>
@@ -19713,7 +19712,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="47"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="39">
         <f>EDATE(A524,1)</f>
         <v>42614</v>
@@ -19744,7 +19743,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="39"/>
       <c r="B527" s="20" t="s">
         <v>90</v>
@@ -19772,7 +19771,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="39">
         <f>EDATE(A526,1)</f>
         <v>42644</v>
@@ -19807,7 +19806,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="39"/>
       <c r="B529" s="20" t="s">
         <v>48</v>
@@ -19831,7 +19830,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="39">
         <f>EDATE(A528,1)</f>
         <v>42675</v>
@@ -19862,7 +19861,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="39">
         <f>EDATE(A530,1)</f>
         <v>42705</v>
@@ -19895,7 +19894,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="23"/>
       <c r="B532" s="20" t="s">
         <v>96</v>
@@ -19921,7 +19920,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="46" t="s">
         <v>95</v>
       </c>
@@ -19945,7 +19944,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="39">
         <v>42736</v>
       </c>
@@ -19975,7 +19974,7 @@
         <v>42856</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="39"/>
       <c r="B535" s="20" t="s">
         <v>98</v>
@@ -20003,7 +20002,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="39">
         <f>EDATE(A534,1)</f>
         <v>42767</v>
@@ -20034,7 +20033,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="39">
         <f t="shared" ref="A537:A546" si="39">EDATE(A536,1)</f>
         <v>42795</v>
@@ -20065,7 +20064,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="39">
         <f t="shared" si="39"/>
         <v>42826</v>
@@ -20096,7 +20095,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="39">
         <f t="shared" si="39"/>
         <v>42856</v>
@@ -20127,7 +20126,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="39">
         <f t="shared" si="39"/>
         <v>42887</v>
@@ -20158,7 +20157,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="39">
         <f t="shared" si="39"/>
         <v>42917</v>
@@ -20189,7 +20188,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="39">
         <f t="shared" si="39"/>
         <v>42948</v>
@@ -20220,7 +20219,7 @@
         <v>42955</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="39"/>
       <c r="B543" s="20" t="s">
         <v>105</v>
@@ -20248,7 +20247,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="47"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="39">
         <f>EDATE(A542,1)</f>
         <v>42979</v>
@@ -20279,7 +20278,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="39">
         <f t="shared" si="39"/>
         <v>43009</v>
@@ -20310,7 +20309,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="39">
         <f t="shared" si="39"/>
         <v>43040</v>
@@ -20341,7 +20340,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="39"/>
       <c r="B547" s="20" t="s">
         <v>48</v>
@@ -20369,7 +20368,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="39"/>
       <c r="B548" s="20"/>
       <c r="C548" s="13">
@@ -20393,7 +20392,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="39">
         <f>EDATE(A546,1)</f>
         <v>43070</v>
@@ -20420,7 +20419,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="46" t="s">
         <v>112</v>
       </c>
@@ -20444,7 +20443,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="39">
         <v>43101</v>
       </c>
@@ -20470,7 +20469,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="39">
         <f>EDATE(A551,1)</f>
         <v>43132</v>
@@ -20497,7 +20496,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="39">
         <f t="shared" ref="A553:A567" si="40">EDATE(A552,1)</f>
         <v>43160</v>
@@ -20524,7 +20523,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="39">
         <f t="shared" si="40"/>
         <v>43191</v>
@@ -20551,7 +20550,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="39">
         <f t="shared" si="40"/>
         <v>43221</v>
@@ -20579,7 +20578,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="39"/>
       <c r="B556" s="20" t="s">
         <v>109</v>
@@ -20607,7 +20606,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="39"/>
       <c r="B557" s="20"/>
       <c r="C557" s="13">
@@ -20631,7 +20630,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="39">
         <f>EDATE(A555,1)</f>
         <v>43252</v>
@@ -20658,7 +20657,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="39">
         <f t="shared" si="40"/>
         <v>43282</v>
@@ -20685,7 +20684,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="39">
         <f t="shared" si="40"/>
         <v>43313</v>
@@ -20714,7 +20713,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="39"/>
       <c r="B561" s="20" t="s">
         <v>88</v>
@@ -20742,7 +20741,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="39"/>
       <c r="B562" s="20"/>
       <c r="C562" s="13">
@@ -20766,7 +20765,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="39">
         <f>EDATE(A560,1)</f>
         <v>43344</v>
@@ -20793,7 +20792,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="39">
         <f t="shared" si="40"/>
         <v>43374</v>
@@ -20824,7 +20823,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="39"/>
       <c r="B565" s="20"/>
       <c r="C565" s="13">
@@ -20848,7 +20847,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="39">
         <f>EDATE(A564,1)</f>
         <v>43405</v>
@@ -20875,7 +20874,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="39">
         <f t="shared" si="40"/>
         <v>43435</v>
@@ -20902,7 +20901,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="46" t="s">
         <v>118</v>
       </c>
@@ -20926,7 +20925,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="39">
         <v>43466</v>
       </c>
@@ -20951,7 +20950,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="39"/>
       <c r="B570" s="20"/>
       <c r="C570" s="13">
@@ -20975,7 +20974,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="39">
         <v>43497</v>
       </c>
@@ -21001,7 +21000,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="39">
         <f t="shared" ref="A572:A584" si="41">EDATE(A571,1)</f>
         <v>43525</v>
@@ -21029,7 +21028,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="39"/>
       <c r="B573" s="20"/>
       <c r="C573" s="13">
@@ -21053,7 +21052,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="39">
         <f>EDATE(A572,1)</f>
         <v>43556</v>
@@ -21080,7 +21079,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="39">
         <f t="shared" si="41"/>
         <v>43586</v>
@@ -21107,7 +21106,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="39">
         <f t="shared" si="41"/>
         <v>43617</v>
@@ -21134,7 +21133,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="39">
         <f t="shared" si="41"/>
         <v>43647</v>
@@ -21163,7 +21162,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="39"/>
       <c r="B578" s="20" t="s">
         <v>123</v>
@@ -21191,7 +21190,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="39"/>
       <c r="B579" s="20"/>
       <c r="C579" s="13">
@@ -21215,7 +21214,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="39">
         <f>EDATE(A577,1)</f>
         <v>43678</v>
@@ -21241,7 +21240,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="39"/>
       <c r="B581" s="20"/>
       <c r="C581" s="13">
@@ -21265,7 +21264,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="39">
         <f>EDATE(A580,1)</f>
         <v>43709</v>
@@ -21292,7 +21291,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="39">
         <f t="shared" si="41"/>
         <v>43739</v>
@@ -21319,7 +21318,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="39">
         <f t="shared" si="41"/>
         <v>43770</v>
@@ -21350,7 +21349,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="39"/>
       <c r="B585" s="20"/>
       <c r="C585" s="13">
@@ -21374,7 +21373,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="39">
         <f>EDATE(A584,1)</f>
         <v>43800</v>
@@ -21405,7 +21404,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="39"/>
       <c r="B587" s="20"/>
       <c r="C587" s="13">
@@ -21426,7 +21425,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="46" t="s">
         <v>544</v>
       </c>
@@ -21450,7 +21449,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="39">
         <v>43831</v>
       </c>
@@ -21480,7 +21479,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="39"/>
       <c r="B590" s="20" t="s">
         <v>545</v>
@@ -21506,7 +21505,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="39"/>
       <c r="B591" s="20"/>
       <c r="C591" s="13">
@@ -21530,7 +21529,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="39">
         <f>EDATE(A589,1)</f>
         <v>43862</v>
@@ -21557,7 +21556,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="39">
         <f t="shared" ref="A593:A603" si="44">EDATE(A592,1)</f>
         <v>43891</v>
@@ -21584,7 +21583,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="39">
         <f t="shared" si="44"/>
         <v>43922</v>
@@ -21611,7 +21610,7 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="39">
         <f t="shared" si="44"/>
         <v>43952</v>
@@ -21638,7 +21637,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="39">
         <f t="shared" si="44"/>
         <v>43983</v>
@@ -21665,7 +21664,7 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="39">
         <f t="shared" si="44"/>
         <v>44013</v>
@@ -21696,7 +21695,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="39"/>
       <c r="B598" s="20"/>
       <c r="C598" s="13">
@@ -21720,7 +21719,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="39">
         <f>EDATE(A597,1)</f>
         <v>44044</v>
@@ -21747,7 +21746,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="39">
         <f t="shared" si="44"/>
         <v>44075</v>
@@ -21774,7 +21773,7 @@
       <c r="J600" s="11"/>
       <c r="K600" s="20"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="39">
         <f t="shared" si="44"/>
         <v>44105</v>
@@ -21801,7 +21800,7 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="39">
         <f t="shared" si="44"/>
         <v>44136</v>
@@ -21828,7 +21827,7 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="39">
         <f t="shared" si="44"/>
         <v>44166</v>
@@ -21859,7 +21858,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="46" t="s">
         <v>549</v>
       </c>
@@ -21883,7 +21882,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="39">
         <v>44197</v>
       </c>
@@ -21913,7 +21912,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="39"/>
       <c r="B606" s="20" t="s">
         <v>57</v>
@@ -21939,7 +21938,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="39"/>
       <c r="B607" s="20"/>
       <c r="C607" s="13">
@@ -21963,7 +21962,7 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="39">
         <f>EDATE(A605,1)</f>
         <v>44228</v>
@@ -21992,7 +21991,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="39"/>
       <c r="B609" s="20" t="s">
         <v>57</v>
@@ -22018,7 +22017,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="39"/>
       <c r="B610" s="20"/>
       <c r="C610" s="13">
@@ -22042,7 +22041,7 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="39">
         <f>EDATE(A608,1)</f>
         <v>44256</v>
@@ -22069,7 +22068,7 @@
       <c r="J611" s="11"/>
       <c r="K611" s="20"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="39">
         <f t="shared" ref="A612:A617" si="45">EDATE(A611,1)</f>
         <v>44287</v>
@@ -22096,7 +22095,7 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="39">
         <f t="shared" si="45"/>
         <v>44317</v>
@@ -22123,7 +22122,7 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="39">
         <f t="shared" si="45"/>
         <v>44348</v>
@@ -22150,7 +22149,7 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="39">
         <f t="shared" si="45"/>
         <v>44378</v>
@@ -22177,7 +22176,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="39">
         <f t="shared" si="45"/>
         <v>44409</v>
@@ -22204,7 +22203,7 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="39">
         <f t="shared" si="45"/>
         <v>44440</v>
@@ -22231,7 +22230,7 @@
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="39">
         <f>EDATE(A617,1)</f>
         <v>44470</v>
@@ -22260,7 +22259,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="39"/>
       <c r="B619" s="20"/>
       <c r="C619" s="13">
@@ -22284,7 +22283,7 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="39">
         <f>EDATE(A618,1)</f>
         <v>44501</v>
@@ -22315,7 +22314,7 @@
         <v>44541</v>
       </c>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="39"/>
       <c r="B621" s="20" t="s">
         <v>116</v>
@@ -22343,7 +22342,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="39"/>
       <c r="B622" s="20"/>
       <c r="C622" s="13">
@@ -22367,7 +22366,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="39">
         <f>EDATE(A620,1)</f>
         <v>44531</v>
@@ -22394,7 +22393,7 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="46" t="s">
         <v>557</v>
       </c>
@@ -22418,7 +22417,7 @@
       <c r="J624" s="11"/>
       <c r="K624" s="20"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="39">
         <v>44562</v>
       </c>
@@ -22446,7 +22445,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="39"/>
       <c r="B626" s="20"/>
       <c r="C626" s="13">
@@ -22470,7 +22469,7 @@
       <c r="J626" s="11"/>
       <c r="K626" s="20"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="39">
         <f>EDATE(A625,1)</f>
         <v>44593</v>
@@ -22497,7 +22496,7 @@
       <c r="J627" s="11"/>
       <c r="K627" s="20"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="39">
         <f t="shared" ref="A628:A632" si="46">EDATE(A627,1)</f>
         <v>44621</v>
@@ -22524,7 +22523,7 @@
       <c r="J628" s="11"/>
       <c r="K628" s="20"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="39">
         <f t="shared" si="46"/>
         <v>44652</v>
@@ -22555,7 +22554,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="39"/>
       <c r="B630" s="20"/>
       <c r="C630" s="13">
@@ -22579,7 +22578,7 @@
       <c r="J630" s="11"/>
       <c r="K630" s="20"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="39">
         <f>EDATE(A629,1)</f>
         <v>44682</v>
@@ -22606,7 +22605,7 @@
       <c r="J631" s="11"/>
       <c r="K631" s="20"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="39">
         <f t="shared" si="46"/>
         <v>44713</v>
@@ -22633,7 +22632,7 @@
       <c r="J632" s="11"/>
       <c r="K632" s="20"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="39">
         <f>EDATE(A632,1)</f>
         <v>44743</v>
@@ -22664,7 +22663,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="39"/>
       <c r="B634" s="20" t="s">
         <v>57</v>
@@ -22690,7 +22689,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="39"/>
       <c r="B635" s="20" t="s">
         <v>116</v>
@@ -22718,7 +22717,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="39"/>
       <c r="B636" s="20"/>
       <c r="C636" s="13">
@@ -22742,7 +22741,7 @@
       <c r="J636" s="11"/>
       <c r="K636" s="20"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="39">
         <v>44774</v>
       </c>
@@ -22768,7 +22767,7 @@
       <c r="J637" s="11"/>
       <c r="K637" s="20"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="39">
         <v>44805</v>
       </c>
@@ -22794,7 +22793,7 @@
       <c r="J638" s="11"/>
       <c r="K638" s="20"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="39">
         <v>44835</v>
       </c>
@@ -22820,7 +22819,7 @@
       <c r="J639" s="11"/>
       <c r="K639" s="20"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="39">
         <v>44866</v>
       </c>
@@ -22846,7 +22845,7 @@
       <c r="J640" s="12"/>
       <c r="K640" s="15"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="39">
         <v>44896</v>
       </c>
@@ -22878,7 +22877,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="46" t="s">
         <v>564</v>
       </c>
@@ -22902,7 +22901,7 @@
       <c r="J642" s="11"/>
       <c r="K642" s="20"/>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="39">
         <v>44927</v>
       </c>
@@ -22928,7 +22927,7 @@
       <c r="J643" s="11"/>
       <c r="K643" s="20"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="39">
         <v>44958</v>
       </c>
@@ -22960,7 +22959,7 @@
         <v>44964</v>
       </c>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="39">
         <v>44986</v>
       </c>
@@ -22990,7 +22989,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="39"/>
       <c r="B646" s="20" t="s">
         <v>570</v>
@@ -23018,7 +23017,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="39">
         <v>45017</v>
       </c>
@@ -23044,7 +23043,7 @@
       <c r="J647" s="11"/>
       <c r="K647" s="20"/>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="39">
         <v>45047</v>
       </c>
@@ -23070,11 +23069,13 @@
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="39">
         <v>45078</v>
       </c>
-      <c r="B649" s="20"/>
+      <c r="B649" s="20" t="s">
+        <v>567</v>
+      </c>
       <c r="C649" s="13">
         <v>1.25</v>
       </c>
@@ -23088,15 +23089,19 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H649" s="38"/>
+      <c r="H649" s="38">
+        <v>1</v>
+      </c>
       <c r="I649" s="13">
         <f t="shared" si="43"/>
-        <v>175.208</v>
+        <v>174.208</v>
       </c>
       <c r="J649" s="11"/>
-      <c r="K649" s="20"/>
-    </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K649" s="47">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="39">
         <v>45108</v>
       </c>
@@ -23117,12 +23122,12 @@
       <c r="H650" s="38"/>
       <c r="I650" s="13">
         <f t="shared" si="43"/>
-        <v>176.458</v>
+        <v>175.458</v>
       </c>
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="39">
         <v>45146</v>
       </c>
@@ -23143,12 +23148,12 @@
       <c r="H651" s="38"/>
       <c r="I651" s="13">
         <f t="shared" si="43"/>
-        <v>176.791</v>
+        <v>175.791</v>
       </c>
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="57"/>
       <c r="B652" s="58" t="s">
         <v>573</v>
@@ -23163,7 +23168,7 @@
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="39"/>
       <c r="B653" s="11"/>
       <c r="C653" s="13"/>
@@ -23180,7 +23185,7 @@
       <c r="J653" s="11"/>
       <c r="K653" s="20"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="39"/>
       <c r="B654" s="11"/>
       <c r="C654" s="13" t="s">
@@ -23197,7 +23202,7 @@
       <c r="J654" s="58"/>
       <c r="K654" s="62"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="39"/>
       <c r="B655" s="20"/>
       <c r="C655" s="13"/>
@@ -23213,7 +23218,7 @@
       <c r="J655" s="11"/>
       <c r="K655" s="20"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="39"/>
       <c r="B656" s="20"/>
       <c r="C656" s="13"/>
@@ -23229,7 +23234,7 @@
       <c r="J656" s="11"/>
       <c r="K656" s="20"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="39"/>
       <c r="B657" s="20"/>
       <c r="C657" s="13"/>
@@ -23245,7 +23250,7 @@
       <c r="J657" s="11"/>
       <c r="K657" s="20"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="56"/>
       <c r="B658" s="15"/>
       <c r="C658" s="40"/>
@@ -23276,10 +23281,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -23302,7 +23307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -23310,21 +23315,21 @@
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="36" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="36" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="73" t="s">
         <v>31</v>
       </c>
@@ -23337,7 +23342,7 @@
       <c r="K1" s="74"/>
       <c r="L1" s="74"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -23366,7 +23371,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -23394,17 +23399,17 @@
         <v>1.083</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="37" t="s">
         <v>27</v>
       </c>
@@ -23425,7 +23430,7 @@
       <c r="K6" s="74"/>
       <c r="L6" s="74"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="36">
         <v>1</v>
       </c>
@@ -23452,7 +23457,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="36">
         <v>2</v>
       </c>
@@ -23478,7 +23483,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="36">
         <v>3</v>
       </c>
@@ -23504,7 +23509,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="36">
         <v>4</v>
       </c>
@@ -23530,7 +23535,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="36">
         <v>5</v>
       </c>
@@ -23556,7 +23561,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="36">
         <v>6</v>
       </c>
@@ -23582,7 +23587,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="36">
         <v>7</v>
       </c>
@@ -23608,7 +23613,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="36">
         <v>8</v>
       </c>
@@ -23634,7 +23639,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="36">
         <v>9</v>
       </c>
@@ -23654,7 +23659,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="36">
         <v>10</v>
       </c>
@@ -23674,7 +23679,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="36">
         <v>11</v>
       </c>
@@ -23694,7 +23699,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="36">
         <v>12</v>
       </c>
@@ -23715,7 +23720,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="36">
         <v>13</v>
       </c>
@@ -23736,7 +23741,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="36">
         <v>14</v>
       </c>
@@ -23757,7 +23762,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="36">
         <v>15</v>
       </c>
@@ -23778,7 +23783,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="36">
         <v>16</v>
       </c>
@@ -23799,7 +23804,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="36">
         <v>17</v>
       </c>
@@ -23820,7 +23825,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="36">
         <v>18</v>
       </c>
@@ -23841,7 +23846,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="36">
         <v>19</v>
       </c>
@@ -23862,7 +23867,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="36">
         <v>20</v>
       </c>
@@ -23883,7 +23888,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="36">
         <v>21</v>
       </c>
@@ -23904,7 +23909,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="36">
         <v>22</v>
       </c>
@@ -23925,7 +23930,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="36">
         <v>23</v>
       </c>
@@ -23946,7 +23951,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="36">
         <v>24</v>
       </c>
@@ -23967,7 +23972,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="36">
         <v>25</v>
       </c>
@@ -23988,7 +23993,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="36">
         <v>26</v>
       </c>
@@ -24009,7 +24014,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="36">
         <v>27</v>
       </c>
@@ -24030,7 +24035,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="36">
         <v>28</v>
       </c>
@@ -24051,7 +24056,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="36">
         <v>29</v>
       </c>
@@ -24072,7 +24077,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="36">
         <v>30</v>
       </c>
@@ -24093,7 +24098,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="36">
         <v>31</v>
       </c>
@@ -24114,7 +24119,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="36">
         <v>32</v>
       </c>
@@ -24123,7 +24128,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="36">
         <v>33</v>
       </c>
@@ -24132,7 +24137,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="36">
         <v>34</v>
       </c>
@@ -24141,7 +24146,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="36">
         <v>35</v>
       </c>
@@ -24150,7 +24155,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="36">
         <v>36</v>
       </c>
@@ -24159,7 +24164,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="36">
         <v>37</v>
       </c>
@@ -24168,7 +24173,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="36">
         <v>38</v>
       </c>
@@ -24177,7 +24182,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="36">
         <v>39</v>
       </c>
@@ -24186,7 +24191,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="36">
         <v>40</v>
       </c>
@@ -24195,7 +24200,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="36">
         <v>41</v>
       </c>
@@ -24204,7 +24209,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="36">
         <v>42</v>
       </c>
@@ -24213,7 +24218,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="36">
         <v>43</v>
       </c>
@@ -24222,7 +24227,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="36">
         <v>44</v>
       </c>
@@ -24231,7 +24236,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="36">
         <v>45</v>
       </c>
@@ -24240,7 +24245,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="36">
         <v>46</v>
       </c>
@@ -24249,7 +24254,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="36">
         <v>47</v>
       </c>
@@ -24258,7 +24263,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="36">
         <v>48</v>
       </c>
@@ -24267,7 +24272,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="36">
         <v>49</v>
       </c>
@@ -24276,7 +24281,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="36">
         <v>50</v>
       </c>
@@ -24285,7 +24290,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="36">
         <v>51</v>
       </c>
@@ -24294,7 +24299,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="36">
         <v>52</v>
       </c>
@@ -24303,7 +24308,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="36">
         <v>53</v>
       </c>
@@ -24312,7 +24317,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="36">
         <v>54</v>
       </c>
@@ -24321,7 +24326,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="36">
         <v>55</v>
       </c>
@@ -24330,7 +24335,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="36">
         <v>56</v>
       </c>
@@ -24339,7 +24344,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="36">
         <v>57</v>
       </c>
@@ -24348,7 +24353,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="36">
         <v>58</v>
       </c>
@@ -24357,7 +24362,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="36">
         <v>59</v>
       </c>
@@ -24366,7 +24371,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="36">
         <v>60</v>
       </c>
@@ -24375,7 +24380,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
